--- a/PaperWork/UCI/uci_parameters.xlsx
+++ b/PaperWork/UCI/uci_parameters.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GACHON\Desktop\AiStudy\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EACB30BF-6E69-4867-B60C-67E34DC33387}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C491709-79FD-426A-9AC2-8AE76EB9680B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="465" windowWidth="14475" windowHeight="11385" xr2:uid="{84D98C7D-2795-4B4B-848B-3E459D765898}"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="14475" windowHeight="11385" xr2:uid="{84D98C7D-2795-4B4B-848B-3E459D765898}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -519,7 +519,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -589,12 +589,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="3" fontId="0" fillId="6" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -617,6 +611,21 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="6" borderId="22" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -756,6 +765,30 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$G$3:$K$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>512</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>Sheet1!$G$4:$K$4</c:f>
@@ -878,6 +911,7 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -915,6 +949,7 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="175775952"/>
+        <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -973,6 +1008,7 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="172842192"/>
+        <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
@@ -1028,6 +1064,7 @@
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="175778448"/>
+        <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -1221,6 +1258,30 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$G$10:$K$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>512</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>Sheet1!$G$11:$K$11</c:f>
@@ -1343,6 +1404,7 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1380,6 +1442,7 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="259856640"/>
+        <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -1439,6 +1502,7 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="259861632"/>
+        <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="100000"/>
       </c:valAx>
@@ -1495,6 +1559,7 @@
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="259862048"/>
+        <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -3071,8 +3136,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57E9B819-1582-4CFC-9226-3BD873B3EB98}">
   <dimension ref="B2:M43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D7" workbookViewId="0">
-      <selection activeCell="I28" sqref="I28"/>
+    <sheetView tabSelected="1" topLeftCell="D13" workbookViewId="0">
+      <selection activeCell="M41" sqref="M41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3127,7 +3192,7 @@
       <c r="I4" s="18">
         <v>247276</v>
       </c>
-      <c r="J4" s="25">
+      <c r="J4" s="23">
         <v>304468</v>
       </c>
       <c r="K4" s="19">
@@ -3153,7 +3218,7 @@
       <c r="I5" s="20">
         <v>0.90680000000000005</v>
       </c>
-      <c r="J5" s="26">
+      <c r="J5" s="24">
         <v>0.91379999999999995</v>
       </c>
       <c r="K5" s="21">
@@ -3179,7 +3244,7 @@
       <c r="I6" s="20">
         <v>0.90549999999999997</v>
       </c>
-      <c r="J6" s="26">
+      <c r="J6" s="24">
         <v>0.91169999999999995</v>
       </c>
       <c r="K6" s="21">
@@ -3205,7 +3270,7 @@
       <c r="I7" s="20">
         <v>0.91490000000000005</v>
       </c>
-      <c r="J7" s="26">
+      <c r="J7" s="24">
         <v>0.90669999999999995</v>
       </c>
       <c r="K7" s="21">
@@ -3228,28 +3293,28 @@
         <f>AVERAGE(I5:I7)</f>
         <v>0.90906666666666658</v>
       </c>
-      <c r="J8" s="27">
+      <c r="J8" s="25">
         <f>AVERAGE(J5:J7)</f>
         <v>0.91073333333333328</v>
       </c>
-      <c r="K8" s="31">
+      <c r="K8" s="29">
         <f>AVERAGE(K5:K7)</f>
         <v>0.90746666666666664</v>
       </c>
     </row>
     <row r="9" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="F9" s="32"/>
-      <c r="G9" s="32"/>
-      <c r="H9" s="32"/>
-      <c r="I9" s="32"/>
-      <c r="J9" s="32"/>
-      <c r="K9" s="32"/>
+      <c r="F9" s="30"/>
+      <c r="G9" s="30"/>
+      <c r="H9" s="30"/>
+      <c r="I9" s="30"/>
+      <c r="J9" s="30"/>
+      <c r="K9" s="30"/>
     </row>
     <row r="10" spans="2:11" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="23" t="s">
+      <c r="B10" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="C10" s="24"/>
+      <c r="C10" s="32"/>
       <c r="F10" s="5" t="s">
         <v>2</v>
       </c>
@@ -3285,7 +3350,7 @@
       <c r="H11" s="18">
         <v>215852</v>
       </c>
-      <c r="I11" s="25">
+      <c r="I11" s="23">
         <v>303468</v>
       </c>
       <c r="J11" s="18">
@@ -3311,7 +3376,7 @@
       <c r="H12" s="20">
         <v>0.91139999999999999</v>
       </c>
-      <c r="I12" s="26">
+      <c r="I12" s="24">
         <v>0.90980000000000005</v>
       </c>
       <c r="J12" s="20">
@@ -3337,7 +3402,7 @@
       <c r="H13" s="20">
         <v>0.89419999999999999</v>
       </c>
-      <c r="I13" s="26">
+      <c r="I13" s="24">
         <v>0.9052</v>
       </c>
       <c r="J13" s="20">
@@ -3363,7 +3428,7 @@
       <c r="H14" s="20">
         <v>0.92020000000000002</v>
       </c>
-      <c r="I14" s="26">
+      <c r="I14" s="24">
         <v>0.91759999999999997</v>
       </c>
       <c r="J14" s="20">
@@ -3391,7 +3456,7 @@
         <f>AVERAGE(H12:H14)</f>
         <v>0.90859999999999996</v>
       </c>
-      <c r="I15" s="27">
+      <c r="I15" s="25">
         <f>AVERAGE(I12:I14)</f>
         <v>0.9108666666666666</v>
       </c>
@@ -3399,7 +3464,7 @@
         <f>AVERAGE(J12:J14)</f>
         <v>0.90390000000000004</v>
       </c>
-      <c r="K15" s="31">
+      <c r="K15" s="29">
         <f>AVERAGE(K12:K14)</f>
         <v>0.90043333333333342</v>
       </c>
@@ -3431,10 +3496,10 @@
       <c r="K17" s="6">
         <v>5</v>
       </c>
-      <c r="L17" s="28">
+      <c r="L17" s="26">
         <v>6</v>
       </c>
-      <c r="M17" s="28">
+      <c r="M17" s="26">
         <v>7</v>
       </c>
     </row>
@@ -3457,10 +3522,10 @@
       <c r="K18" s="18">
         <v>301164</v>
       </c>
-      <c r="L18" s="29">
+      <c r="L18" s="27">
         <v>303468</v>
       </c>
-      <c r="M18" s="29">
+      <c r="M18" s="33">
         <v>305772</v>
       </c>
     </row>
@@ -3483,10 +3548,10 @@
       <c r="K19" s="20">
         <v>0.90529999999999999</v>
       </c>
-      <c r="L19" s="30">
+      <c r="L19" s="28">
         <v>0.90180000000000005</v>
       </c>
-      <c r="M19" s="30">
+      <c r="M19" s="34">
         <v>0.91210000000000002</v>
       </c>
     </row>
@@ -3509,10 +3574,10 @@
       <c r="K20" s="20">
         <v>0.90810000000000002</v>
       </c>
-      <c r="L20" s="30">
+      <c r="L20" s="28">
         <v>0.90959999999999996</v>
       </c>
-      <c r="M20" s="30">
+      <c r="M20" s="34">
         <v>0.9143</v>
       </c>
     </row>
@@ -3535,10 +3600,10 @@
       <c r="K21" s="20">
         <v>0.90539999999999998</v>
       </c>
-      <c r="L21" s="30">
+      <c r="L21" s="28">
         <v>0.91610000000000003</v>
       </c>
-      <c r="M21" s="30">
+      <c r="M21" s="34">
         <v>0.90620000000000001</v>
       </c>
     </row>
@@ -3566,23 +3631,23 @@
         <f t="shared" si="0"/>
         <v>0.90626666666666666</v>
       </c>
-      <c r="L22" s="31">
+      <c r="L22" s="29">
         <f t="shared" si="0"/>
         <v>0.90916666666666668</v>
       </c>
-      <c r="M22" s="31">
+      <c r="M22" s="35">
         <f t="shared" ref="M22" si="1">AVERAGE(M19:M21)</f>
         <v>0.91086666666666671</v>
       </c>
     </row>
     <row r="23" spans="6:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="F23" s="32"/>
-      <c r="G23" s="32"/>
-      <c r="H23" s="32"/>
-      <c r="I23" s="32"/>
-      <c r="J23" s="32"/>
-      <c r="K23" s="32"/>
-      <c r="L23" s="32"/>
+      <c r="F23" s="30"/>
+      <c r="G23" s="30"/>
+      <c r="H23" s="30"/>
+      <c r="I23" s="30"/>
+      <c r="J23" s="30"/>
+      <c r="K23" s="30"/>
+      <c r="L23" s="30"/>
     </row>
     <row r="24" spans="6:13" x14ac:dyDescent="0.3">
       <c r="F24" s="5" t="s">
@@ -3603,7 +3668,7 @@
       <c r="K24" s="6">
         <v>5</v>
       </c>
-      <c r="L24" s="28">
+      <c r="L24" s="26">
         <v>6</v>
       </c>
     </row>
@@ -3614,11 +3679,21 @@
       <c r="G25" s="18">
         <v>237932</v>
       </c>
-      <c r="H25" s="18"/>
-      <c r="I25" s="18"/>
-      <c r="J25" s="18"/>
-      <c r="K25" s="18"/>
-      <c r="L25" s="29"/>
+      <c r="H25" s="18">
+        <v>270700</v>
+      </c>
+      <c r="I25" s="18">
+        <v>303468</v>
+      </c>
+      <c r="J25" s="18">
+        <v>336236</v>
+      </c>
+      <c r="K25" s="23">
+        <v>369004</v>
+      </c>
+      <c r="L25" s="27">
+        <v>401772</v>
+      </c>
     </row>
     <row r="26" spans="6:13" x14ac:dyDescent="0.3">
       <c r="F26" s="8" t="s">
@@ -3627,11 +3702,22 @@
       <c r="G26" s="20">
         <v>0.9022</v>
       </c>
-      <c r="H26" s="20"/>
-      <c r="I26" s="20"/>
-      <c r="J26" s="20"/>
-      <c r="K26" s="20"/>
-      <c r="L26" s="30"/>
+      <c r="H26" s="20">
+        <v>0.9113</v>
+      </c>
+      <c r="I26" s="20">
+        <v>0.90500000000000003</v>
+      </c>
+      <c r="J26" s="20">
+        <v>0.91679999999999995</v>
+      </c>
+      <c r="K26" s="24">
+        <v>0.91959999999999997</v>
+      </c>
+      <c r="L26" s="28">
+        <v>0.90549999999999997</v>
+      </c>
+      <c r="M26" s="30"/>
     </row>
     <row r="27" spans="6:13" x14ac:dyDescent="0.3">
       <c r="F27" s="8" t="s">
@@ -3640,11 +3726,22 @@
       <c r="G27" s="20">
         <v>0.90700000000000003</v>
       </c>
-      <c r="H27" s="20"/>
-      <c r="I27" s="20"/>
-      <c r="J27" s="20"/>
-      <c r="K27" s="20"/>
-      <c r="L27" s="30"/>
+      <c r="H27" s="20">
+        <v>0.89429999999999998</v>
+      </c>
+      <c r="I27" s="20">
+        <v>0.89990000000000003</v>
+      </c>
+      <c r="J27" s="20">
+        <v>0.91459999999999997</v>
+      </c>
+      <c r="K27" s="24">
+        <v>0.90469999999999995</v>
+      </c>
+      <c r="L27" s="28">
+        <v>0.91839999999999999</v>
+      </c>
+      <c r="M27" s="30"/>
     </row>
     <row r="28" spans="6:13" x14ac:dyDescent="0.3">
       <c r="F28" s="8" t="s">
@@ -3653,40 +3750,52 @@
       <c r="G28" s="20">
         <v>0.90429999999999999</v>
       </c>
-      <c r="H28" s="20"/>
-      <c r="I28" s="20"/>
-      <c r="J28" s="20"/>
-      <c r="K28" s="20"/>
-      <c r="L28" s="30"/>
+      <c r="H28" s="20">
+        <v>0.91600000000000004</v>
+      </c>
+      <c r="I28" s="20">
+        <v>0.92230000000000001</v>
+      </c>
+      <c r="J28" s="20">
+        <v>0.90569999999999995</v>
+      </c>
+      <c r="K28" s="24">
+        <v>0.93289999999999995</v>
+      </c>
+      <c r="L28" s="28">
+        <v>0.9</v>
+      </c>
+      <c r="M28" s="30"/>
     </row>
     <row r="29" spans="6:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F29" s="9" t="s">
         <v>11</v>
       </c>
       <c r="G29" s="22">
-        <f t="shared" ref="G29:L29" si="2">AVERAGE(G26:G28)</f>
+        <f t="shared" ref="G29:M29" si="2">AVERAGE(G26:G28)</f>
         <v>0.90450000000000008</v>
       </c>
-      <c r="H29" s="22" t="e">
+      <c r="H29" s="22">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I29" s="22" t="e">
+        <v>0.90720000000000001</v>
+      </c>
+      <c r="I29" s="22">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J29" s="22" t="e">
+        <v>0.90906666666666658</v>
+      </c>
+      <c r="J29" s="22">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K29" s="22" t="e">
+        <v>0.91236666666666666</v>
+      </c>
+      <c r="K29" s="25">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L29" s="31" t="e">
+        <v>0.9190666666666667</v>
+      </c>
+      <c r="L29" s="29">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
+        <v>0.9079666666666667</v>
+      </c>
+      <c r="M29" s="30"/>
     </row>
     <row r="30" spans="6:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="31" spans="6:13" x14ac:dyDescent="0.3">
@@ -3713,65 +3822,105 @@
       <c r="F32" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="G32" s="18"/>
-      <c r="H32" s="18"/>
-      <c r="I32" s="18"/>
-      <c r="J32" s="18"/>
-      <c r="K32" s="19"/>
+      <c r="G32" s="18">
+        <v>156868</v>
+      </c>
+      <c r="H32" s="18">
+        <v>220168</v>
+      </c>
+      <c r="I32" s="23">
+        <v>303468</v>
+      </c>
+      <c r="J32" s="18">
+        <v>406768</v>
+      </c>
+      <c r="K32" s="19">
+        <v>530068</v>
+      </c>
     </row>
     <row r="33" spans="6:11" x14ac:dyDescent="0.3">
       <c r="F33" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="G33" s="20"/>
-      <c r="H33" s="20"/>
-      <c r="I33" s="20"/>
-      <c r="J33" s="20"/>
-      <c r="K33" s="21"/>
+      <c r="G33" s="20">
+        <v>0.90639999999999998</v>
+      </c>
+      <c r="H33" s="20">
+        <v>0.91590000000000005</v>
+      </c>
+      <c r="I33" s="24">
+        <v>0.91100000000000003</v>
+      </c>
+      <c r="J33" s="20">
+        <v>0.90569999999999995</v>
+      </c>
+      <c r="K33" s="21">
+        <v>0.91369999999999996</v>
+      </c>
     </row>
     <row r="34" spans="6:11" x14ac:dyDescent="0.3">
       <c r="F34" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="G34" s="20"/>
-      <c r="H34" s="20"/>
-      <c r="I34" s="20"/>
-      <c r="J34" s="20"/>
-      <c r="K34" s="21"/>
+      <c r="G34" s="20">
+        <v>0.91539999999999999</v>
+      </c>
+      <c r="H34" s="20">
+        <v>0.90890000000000004</v>
+      </c>
+      <c r="I34" s="24">
+        <v>0.90539999999999998</v>
+      </c>
+      <c r="J34" s="20">
+        <v>0.91300000000000003</v>
+      </c>
+      <c r="K34" s="21">
+        <v>0.90410000000000001</v>
+      </c>
     </row>
     <row r="35" spans="6:11" x14ac:dyDescent="0.3">
       <c r="F35" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="G35" s="20"/>
-      <c r="H35" s="20"/>
-      <c r="I35" s="20"/>
-      <c r="J35" s="20"/>
-      <c r="K35" s="21"/>
+      <c r="G35" s="20">
+        <v>0.90490000000000004</v>
+      </c>
+      <c r="H35" s="20">
+        <v>0.89839999999999998</v>
+      </c>
+      <c r="I35" s="24">
+        <v>0.91820000000000002</v>
+      </c>
+      <c r="J35" s="20">
+        <v>0.90429999999999999</v>
+      </c>
+      <c r="K35" s="21">
+        <v>0.91190000000000004</v>
+      </c>
     </row>
     <row r="36" spans="6:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F36" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="G36" s="22" t="e">
+      <c r="G36" s="22">
         <f>AVERAGE(G33:G35)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H36" s="22" t="e">
+        <v>0.90890000000000004</v>
+      </c>
+      <c r="H36" s="22">
         <f>AVERAGE(H33:H35)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I36" s="22" t="e">
+        <v>0.90773333333333339</v>
+      </c>
+      <c r="I36" s="25">
         <f>AVERAGE(I33:I35)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J36" s="22" t="e">
+        <v>0.91153333333333331</v>
+      </c>
+      <c r="J36" s="22">
         <f>AVERAGE(J33:J35)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K36" s="31" t="e">
+        <v>0.90766666666666662</v>
+      </c>
+      <c r="K36" s="29">
         <f>AVERAGE(K33:K35)</f>
-        <v>#DIV/0!</v>
+        <v>0.90990000000000004</v>
       </c>
     </row>
     <row r="37" spans="6:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
@@ -3799,65 +3948,105 @@
       <c r="F39" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="G39" s="18"/>
-      <c r="H39" s="18"/>
-      <c r="I39" s="18"/>
-      <c r="J39" s="18"/>
-      <c r="K39" s="19"/>
+      <c r="G39" s="18">
+        <v>287768</v>
+      </c>
+      <c r="H39" s="18">
+        <v>295618</v>
+      </c>
+      <c r="I39" s="23">
+        <v>303468</v>
+      </c>
+      <c r="J39" s="18">
+        <v>311318</v>
+      </c>
+      <c r="K39" s="19">
+        <v>319168</v>
+      </c>
     </row>
     <row r="40" spans="6:11" x14ac:dyDescent="0.3">
       <c r="F40" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="G40" s="20"/>
-      <c r="H40" s="20"/>
-      <c r="I40" s="20"/>
-      <c r="J40" s="20"/>
-      <c r="K40" s="21"/>
+      <c r="G40" s="20">
+        <v>0.89170000000000005</v>
+      </c>
+      <c r="H40" s="20">
+        <v>0.89929999999999999</v>
+      </c>
+      <c r="I40" s="24">
+        <v>0.90980000000000005</v>
+      </c>
+      <c r="J40" s="20">
+        <v>0.91090000000000004</v>
+      </c>
+      <c r="K40" s="21">
+        <v>0.91310000000000002</v>
+      </c>
     </row>
     <row r="41" spans="6:11" x14ac:dyDescent="0.3">
       <c r="F41" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="G41" s="20"/>
-      <c r="H41" s="20"/>
-      <c r="I41" s="20"/>
-      <c r="J41" s="20"/>
-      <c r="K41" s="21"/>
+      <c r="G41" s="20">
+        <v>0.91090000000000004</v>
+      </c>
+      <c r="H41" s="20">
+        <v>0.90380000000000005</v>
+      </c>
+      <c r="I41" s="24">
+        <v>0.91010000000000002</v>
+      </c>
+      <c r="J41" s="20">
+        <v>0.88770000000000004</v>
+      </c>
+      <c r="K41" s="21">
+        <v>0.90939999999999999</v>
+      </c>
     </row>
     <row r="42" spans="6:11" x14ac:dyDescent="0.3">
       <c r="F42" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="G42" s="20"/>
-      <c r="H42" s="20"/>
-      <c r="I42" s="20"/>
-      <c r="J42" s="20"/>
-      <c r="K42" s="21"/>
+      <c r="G42" s="20">
+        <v>0.91949999999999998</v>
+      </c>
+      <c r="H42" s="20">
+        <v>0.90600000000000003</v>
+      </c>
+      <c r="I42" s="24">
+        <v>0.91259999999999997</v>
+      </c>
+      <c r="J42" s="20">
+        <v>0.9002</v>
+      </c>
+      <c r="K42" s="21">
+        <v>0.9042</v>
+      </c>
     </row>
     <row r="43" spans="6:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F43" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="G43" s="22" t="e">
+      <c r="G43" s="22">
         <f>AVERAGE(G40:G42)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H43" s="22" t="e">
+        <v>0.90736666666666677</v>
+      </c>
+      <c r="H43" s="22">
         <f>AVERAGE(H40:H42)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I43" s="22" t="e">
+        <v>0.90303333333333347</v>
+      </c>
+      <c r="I43" s="25">
         <f>AVERAGE(I40:I42)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J43" s="22" t="e">
+        <v>0.91083333333333327</v>
+      </c>
+      <c r="J43" s="22">
         <f>AVERAGE(J40:J42)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K43" s="31" t="e">
+        <v>0.89959999999999996</v>
+      </c>
+      <c r="K43" s="29">
         <f>AVERAGE(K40:K42)</f>
-        <v>#DIV/0!</v>
+        <v>0.90890000000000004</v>
       </c>
     </row>
   </sheetData>

--- a/PaperWork/UCI/uci_parameters.xlsx
+++ b/PaperWork/UCI/uci_parameters.xlsx
@@ -1,21 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GACHON\Desktop\AiStudy\files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yc_hur\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C491709-79FD-426A-9AC2-8AE76EB9680B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="14475" windowHeight="11385" xr2:uid="{84D98C7D-2795-4B4B-848B-3E459D765898}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="8175" windowHeight="8040"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <externalReferences>
+    <externalReference r:id="rId2"/>
+  </externalReferences>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="29">
   <si>
     <t>Default Value</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -107,11 +109,55 @@
     <t>Epoch</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>2nd_Conv_filters</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F1_score(1st)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F1_score(avg)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F1_score(3rd)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LSTM_Unit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F1_score(1st)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F1_score(2nd)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F1_score(3rd)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F1_score(avg)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dense</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F1_score(2nd)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -138,7 +184,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -169,14 +215,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="24">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -513,13 +553,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -589,15 +642,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="6" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -613,26 +657,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="6" borderId="22" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="3">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -705,6 +750,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -746,7 +792,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$F$4</c:f>
+              <c:f>[1]Sheet1!$E$169</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -767,7 +813,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$G$3:$K$3</c:f>
+              <c:f>[1]Sheet1!$F$168:$J$168</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -791,7 +837,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$G$4:$K$4</c:f>
+              <c:f>[1]Sheet1!$F$169:$J$169</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="5"/>
@@ -839,7 +885,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$F$8</c:f>
+              <c:f>[1]Sheet1!$E$173</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -862,7 +908,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$G$8:$K$8</c:f>
+              <c:f>[1]Sheet1!$F$173:$J$173</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1080,6 +1126,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1111,6 +1158,7 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -1118,7 +1166,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -1198,6 +1245,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1239,7 +1287,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$F$11</c:f>
+              <c:f>[1]Sheet1!$E$179</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1260,7 +1308,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$G$10:$K$10</c:f>
+              <c:f>[1]Sheet1!$F$178:$J$178</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1284,7 +1332,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$G$11:$K$11</c:f>
+              <c:f>[1]Sheet1!$F$179:$J$179</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1332,7 +1380,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$F$15</c:f>
+              <c:f>[1]Sheet1!$E$183</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1355,7 +1403,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$G$15:$K$15</c:f>
+              <c:f>[1]Sheet1!$F$183:$J$183</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1575,6 +1623,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1606,6 +1655,7 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -1613,7 +1663,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -2835,6 +2884,134 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="168">
+          <cell r="F168">
+            <v>32</v>
+          </cell>
+          <cell r="G168">
+            <v>64</v>
+          </cell>
+          <cell r="H168">
+            <v>128</v>
+          </cell>
+          <cell r="I168">
+            <v>256</v>
+          </cell>
+          <cell r="J168">
+            <v>512</v>
+          </cell>
+        </row>
+        <row r="169">
+          <cell r="E169" t="str">
+            <v>Number of Params</v>
+          </cell>
+          <cell r="F169">
+            <v>205132</v>
+          </cell>
+          <cell r="G169">
+            <v>219180</v>
+          </cell>
+          <cell r="H169">
+            <v>247276</v>
+          </cell>
+          <cell r="I169">
+            <v>304468</v>
+          </cell>
+          <cell r="J169">
+            <v>415852</v>
+          </cell>
+        </row>
+        <row r="173">
+          <cell r="E173" t="str">
+            <v>F1_score(avg)</v>
+          </cell>
+          <cell r="F173">
+            <v>0.90390000000000015</v>
+          </cell>
+          <cell r="G173">
+            <v>0.8992</v>
+          </cell>
+          <cell r="H173">
+            <v>0.90906666666666658</v>
+          </cell>
+          <cell r="I173">
+            <v>0.91073333333333328</v>
+          </cell>
+          <cell r="J173">
+            <v>0.90746666666666664</v>
+          </cell>
+        </row>
+        <row r="178">
+          <cell r="F178">
+            <v>32</v>
+          </cell>
+          <cell r="G178">
+            <v>64</v>
+          </cell>
+          <cell r="H178">
+            <v>128</v>
+          </cell>
+          <cell r="I178">
+            <v>256</v>
+          </cell>
+          <cell r="J178">
+            <v>512</v>
+          </cell>
+        </row>
+        <row r="179">
+          <cell r="E179" t="str">
+            <v>Number of Params</v>
+          </cell>
+          <cell r="F179">
+            <v>172044</v>
+          </cell>
+          <cell r="G179">
+            <v>215852</v>
+          </cell>
+          <cell r="H179">
+            <v>303468</v>
+          </cell>
+          <cell r="I179">
+            <v>478700</v>
+          </cell>
+          <cell r="J179">
+            <v>829164</v>
+          </cell>
+        </row>
+        <row r="183">
+          <cell r="E183" t="str">
+            <v>F1_score(avg)</v>
+          </cell>
+          <cell r="F183">
+            <v>0.90586666666666671</v>
+          </cell>
+          <cell r="G183">
+            <v>0.90859999999999996</v>
+          </cell>
+          <cell r="H183">
+            <v>0.9108666666666666</v>
+          </cell>
+          <cell r="I183">
+            <v>0.90390000000000004</v>
+          </cell>
+          <cell r="J183">
+            <v>0.90043333333333342</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3133,11 +3310,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57E9B819-1582-4CFC-9226-3BD873B3EB98}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:M43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D13" workbookViewId="0">
-      <selection activeCell="M41" sqref="M41"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3184,19 +3361,19 @@
         <v>7</v>
       </c>
       <c r="G4" s="18">
-        <v>205132</v>
+        <v>205420</v>
       </c>
       <c r="H4" s="18">
-        <v>219180</v>
+        <v>219756</v>
       </c>
       <c r="I4" s="18">
-        <v>247276</v>
-      </c>
-      <c r="J4" s="23">
-        <v>304468</v>
+        <v>248428</v>
+      </c>
+      <c r="J4" s="18">
+        <v>305772</v>
       </c>
       <c r="K4" s="19">
-        <v>415852</v>
+        <v>420460</v>
       </c>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.3">
@@ -3210,19 +3387,19 @@
         <v>8</v>
       </c>
       <c r="G5" s="20">
-        <v>0.91190000000000004</v>
+        <v>0.89559999999999995</v>
       </c>
       <c r="H5" s="20">
-        <v>0.90069999999999995</v>
+        <v>0.88890000000000002</v>
       </c>
       <c r="I5" s="20">
-        <v>0.90680000000000005</v>
-      </c>
-      <c r="J5" s="24">
-        <v>0.91379999999999995</v>
+        <v>0.91149999999999998</v>
+      </c>
+      <c r="J5" s="20">
+        <v>0.90810000000000002</v>
       </c>
       <c r="K5" s="21">
-        <v>0.9012</v>
+        <v>0.8962</v>
       </c>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.3">
@@ -3236,16 +3413,16 @@
         <v>9</v>
       </c>
       <c r="G6" s="20">
-        <v>0.89880000000000004</v>
+        <v>0.90449999999999997</v>
       </c>
       <c r="H6" s="20">
-        <v>0.90649999999999997</v>
+        <v>0.89610000000000001</v>
       </c>
       <c r="I6" s="20">
-        <v>0.90549999999999997</v>
-      </c>
-      <c r="J6" s="24">
-        <v>0.91169999999999995</v>
+        <v>0.9012</v>
+      </c>
+      <c r="J6" s="20">
+        <v>0.91400000000000003</v>
       </c>
       <c r="K6" s="21">
         <v>0.91610000000000003</v>
@@ -3262,19 +3439,19 @@
         <v>10</v>
       </c>
       <c r="G7" s="20">
-        <v>0.90100000000000002</v>
+        <v>0.87129999999999996</v>
       </c>
       <c r="H7" s="20">
-        <v>0.89039999999999997</v>
+        <v>0.91279999999999994</v>
       </c>
       <c r="I7" s="20">
-        <v>0.91490000000000005</v>
-      </c>
-      <c r="J7" s="24">
-        <v>0.90669999999999995</v>
+        <v>0.90959999999999996</v>
+      </c>
+      <c r="J7" s="20">
+        <v>0.91120000000000001</v>
       </c>
       <c r="K7" s="21">
-        <v>0.90510000000000002</v>
+        <v>0.90810000000000002</v>
       </c>
     </row>
     <row r="8" spans="2:11" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -3283,40 +3460,40 @@
       </c>
       <c r="G8" s="22">
         <f>AVERAGE(G5:G7)</f>
-        <v>0.90390000000000015</v>
+        <v>0.89046666666666674</v>
       </c>
       <c r="H8" s="22">
         <f>AVERAGE(H5:H7)</f>
-        <v>0.8992</v>
+        <v>0.89926666666666666</v>
       </c>
       <c r="I8" s="22">
         <f>AVERAGE(I5:I7)</f>
-        <v>0.90906666666666658</v>
-      </c>
-      <c r="J8" s="25">
+        <v>0.9074333333333332</v>
+      </c>
+      <c r="J8" s="22">
         <f>AVERAGE(J5:J7)</f>
-        <v>0.91073333333333328</v>
-      </c>
-      <c r="K8" s="29">
+        <v>0.91109999999999991</v>
+      </c>
+      <c r="K8" s="26">
         <f>AVERAGE(K5:K7)</f>
-        <v>0.90746666666666664</v>
+        <v>0.90680000000000005</v>
       </c>
     </row>
     <row r="9" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="F9" s="30"/>
-      <c r="G9" s="30"/>
-      <c r="H9" s="30"/>
-      <c r="I9" s="30"/>
-      <c r="J9" s="30"/>
-      <c r="K9" s="30"/>
+      <c r="F9" s="27"/>
+      <c r="G9" s="27"/>
+      <c r="H9" s="27"/>
+      <c r="I9" s="27"/>
+      <c r="J9" s="27"/>
+      <c r="K9" s="27"/>
     </row>
     <row r="10" spans="2:11" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="31" t="s">
+      <c r="B10" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="C10" s="32"/>
+      <c r="C10" s="30"/>
       <c r="F10" s="5" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="G10" s="6">
         <v>32</v>
@@ -3344,21 +3521,11 @@
       <c r="F11" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="G11" s="18">
-        <v>172044</v>
-      </c>
-      <c r="H11" s="18">
-        <v>215852</v>
-      </c>
-      <c r="I11" s="23">
-        <v>303468</v>
-      </c>
-      <c r="J11" s="18">
-        <v>478700</v>
-      </c>
-      <c r="K11" s="19">
-        <v>829164</v>
-      </c>
+      <c r="G11" s="18"/>
+      <c r="H11" s="18"/>
+      <c r="I11" s="18"/>
+      <c r="J11" s="18"/>
+      <c r="K11" s="19"/>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B12" s="1" t="s">
@@ -3368,49 +3535,29 @@
         <v>128</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="G12" s="20">
-        <v>0.89780000000000004</v>
-      </c>
-      <c r="H12" s="20">
-        <v>0.91139999999999999</v>
-      </c>
-      <c r="I12" s="24">
-        <v>0.90980000000000005</v>
-      </c>
-      <c r="J12" s="20">
-        <v>0.91</v>
-      </c>
-      <c r="K12" s="21">
-        <v>0.90939999999999999</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G12" s="20"/>
+      <c r="H12" s="20"/>
+      <c r="I12" s="20"/>
+      <c r="J12" s="20"/>
+      <c r="K12" s="21"/>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B13" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C13" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F13" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="G13" s="20">
-        <v>0.90890000000000004</v>
-      </c>
-      <c r="H13" s="20">
-        <v>0.89419999999999999</v>
-      </c>
-      <c r="I13" s="24">
-        <v>0.9052</v>
-      </c>
-      <c r="J13" s="20">
-        <v>0.90880000000000005</v>
-      </c>
-      <c r="K13" s="21">
-        <v>0.91010000000000002</v>
-      </c>
+      <c r="G13" s="20"/>
+      <c r="H13" s="20"/>
+      <c r="I13" s="20"/>
+      <c r="J13" s="20"/>
+      <c r="K13" s="21"/>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B14" s="1" t="s">
@@ -3422,21 +3569,11 @@
       <c r="F14" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="G14" s="20">
-        <v>0.91090000000000004</v>
-      </c>
-      <c r="H14" s="20">
-        <v>0.92020000000000002</v>
-      </c>
-      <c r="I14" s="24">
-        <v>0.91759999999999997</v>
-      </c>
-      <c r="J14" s="20">
-        <v>0.89290000000000003</v>
-      </c>
-      <c r="K14" s="21">
-        <v>0.88180000000000003</v>
-      </c>
+      <c r="G14" s="20"/>
+      <c r="H14" s="20"/>
+      <c r="I14" s="20"/>
+      <c r="J14" s="20"/>
+      <c r="K14" s="21"/>
     </row>
     <row r="15" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B15" s="1" t="s">
@@ -3446,27 +3583,27 @@
         <v>150</v>
       </c>
       <c r="F15" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G15" s="22">
+        <v>20</v>
+      </c>
+      <c r="G15" s="22" t="e">
         <f>AVERAGE(G12:G14)</f>
-        <v>0.90586666666666671</v>
-      </c>
-      <c r="H15" s="22">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H15" s="22" t="e">
         <f>AVERAGE(H12:H14)</f>
-        <v>0.90859999999999996</v>
-      </c>
-      <c r="I15" s="25">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I15" s="22" t="e">
         <f>AVERAGE(I12:I14)</f>
-        <v>0.9108666666666666</v>
-      </c>
-      <c r="J15" s="22">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J15" s="22" t="e">
         <f>AVERAGE(J12:J14)</f>
-        <v>0.90390000000000004</v>
-      </c>
-      <c r="K15" s="29">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K15" s="26" t="e">
         <f>AVERAGE(K12:K14)</f>
-        <v>0.90043333333333342</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="16" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -3482,325 +3619,199 @@
         <v>3</v>
       </c>
       <c r="G17" s="6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H17" s="6">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I17" s="6">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J17" s="6">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="K17" s="6">
-        <v>5</v>
-      </c>
-      <c r="L17" s="26">
-        <v>6</v>
-      </c>
-      <c r="M17" s="26">
-        <v>7</v>
+        <v>9</v>
+      </c>
+      <c r="L17" s="23">
+        <v>12</v>
       </c>
     </row>
     <row r="18" spans="6:13" x14ac:dyDescent="0.3">
       <c r="F18" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="G18" s="18">
-        <v>291948</v>
-      </c>
-      <c r="H18" s="18">
-        <v>294252</v>
-      </c>
-      <c r="I18" s="18">
-        <v>296556</v>
-      </c>
-      <c r="J18" s="18">
-        <v>298860</v>
-      </c>
-      <c r="K18" s="18">
-        <v>301164</v>
-      </c>
-      <c r="L18" s="27">
-        <v>303468</v>
-      </c>
-      <c r="M18" s="33">
-        <v>305772</v>
-      </c>
+      <c r="G18" s="18"/>
+      <c r="H18" s="18"/>
+      <c r="I18" s="18"/>
+      <c r="J18" s="18"/>
+      <c r="K18" s="18"/>
+      <c r="L18" s="24"/>
     </row>
     <row r="19" spans="6:13" x14ac:dyDescent="0.3">
       <c r="F19" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="G19" s="20">
-        <v>0.90900000000000003</v>
-      </c>
-      <c r="H19" s="20">
-        <v>0.89370000000000005</v>
-      </c>
-      <c r="I19" s="20">
-        <v>0.89459999999999995</v>
-      </c>
-      <c r="J19" s="20">
-        <v>0.89980000000000004</v>
-      </c>
-      <c r="K19" s="20">
-        <v>0.90529999999999999</v>
-      </c>
-      <c r="L19" s="28">
-        <v>0.90180000000000005</v>
-      </c>
-      <c r="M19" s="34">
-        <v>0.91210000000000002</v>
-      </c>
+      <c r="G19" s="20"/>
+      <c r="H19" s="20"/>
+      <c r="I19" s="20"/>
+      <c r="J19" s="20"/>
+      <c r="K19" s="20"/>
+      <c r="L19" s="25"/>
     </row>
     <row r="20" spans="6:13" x14ac:dyDescent="0.3">
       <c r="F20" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="G20" s="20">
-        <v>0.91110000000000002</v>
-      </c>
-      <c r="H20" s="20">
-        <v>0.90759999999999996</v>
-      </c>
-      <c r="I20" s="20">
-        <v>0.90710000000000002</v>
-      </c>
-      <c r="J20" s="20">
-        <v>0.91110000000000002</v>
-      </c>
-      <c r="K20" s="20">
-        <v>0.90810000000000002</v>
-      </c>
-      <c r="L20" s="28">
-        <v>0.90959999999999996</v>
-      </c>
-      <c r="M20" s="34">
-        <v>0.9143</v>
-      </c>
+      <c r="G20" s="20"/>
+      <c r="H20" s="20"/>
+      <c r="I20" s="20"/>
+      <c r="J20" s="20"/>
+      <c r="K20" s="20"/>
+      <c r="L20" s="25"/>
     </row>
     <row r="21" spans="6:13" x14ac:dyDescent="0.3">
       <c r="F21" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="G21" s="20">
-        <v>0.8639</v>
-      </c>
-      <c r="H21" s="20">
-        <v>0.89559999999999995</v>
-      </c>
-      <c r="I21" s="20">
-        <v>0.91259999999999997</v>
-      </c>
-      <c r="J21" s="20">
-        <v>0.90580000000000005</v>
-      </c>
-      <c r="K21" s="20">
-        <v>0.90539999999999998</v>
-      </c>
-      <c r="L21" s="28">
-        <v>0.91610000000000003</v>
-      </c>
-      <c r="M21" s="34">
-        <v>0.90620000000000001</v>
-      </c>
+      <c r="G21" s="20"/>
+      <c r="H21" s="20"/>
+      <c r="I21" s="20"/>
+      <c r="J21" s="20"/>
+      <c r="K21" s="20"/>
+      <c r="L21" s="25"/>
     </row>
     <row r="22" spans="6:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F22" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="G22" s="22">
+      <c r="G22" s="22" t="e">
         <f t="shared" ref="G22:L22" si="0">AVERAGE(G19:G21)</f>
-        <v>0.89466666666666672</v>
-      </c>
-      <c r="H22" s="22">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H22" s="22" t="e">
         <f t="shared" si="0"/>
-        <v>0.89896666666666658</v>
-      </c>
-      <c r="I22" s="22">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I22" s="22" t="e">
         <f t="shared" si="0"/>
-        <v>0.90476666666666661</v>
-      </c>
-      <c r="J22" s="22">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J22" s="22" t="e">
         <f t="shared" si="0"/>
-        <v>0.90556666666666674</v>
-      </c>
-      <c r="K22" s="22">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K22" s="22" t="e">
         <f t="shared" si="0"/>
-        <v>0.90626666666666666</v>
-      </c>
-      <c r="L22" s="29">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L22" s="28" t="e">
         <f t="shared" si="0"/>
-        <v>0.90916666666666668</v>
-      </c>
-      <c r="M22" s="35">
-        <f t="shared" ref="M22" si="1">AVERAGE(M19:M21)</f>
-        <v>0.91086666666666671</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="23" spans="6:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="F23" s="30"/>
-      <c r="G23" s="30"/>
-      <c r="H23" s="30"/>
-      <c r="I23" s="30"/>
-      <c r="J23" s="30"/>
-      <c r="K23" s="30"/>
-      <c r="L23" s="30"/>
+      <c r="F23" s="27"/>
+      <c r="G23" s="27"/>
+      <c r="H23" s="27"/>
+      <c r="I23" s="27"/>
+      <c r="J23" s="27"/>
+      <c r="K23" s="27"/>
+      <c r="L23" s="27"/>
     </row>
     <row r="24" spans="6:13" x14ac:dyDescent="0.3">
       <c r="F24" s="5" t="s">
         <v>4</v>
       </c>
       <c r="G24" s="6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H24" s="6">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I24" s="6">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J24" s="6">
-        <v>4</v>
-      </c>
-      <c r="K24" s="6">
-        <v>5</v>
-      </c>
-      <c r="L24" s="26">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="K24" s="7">
+        <v>9</v>
       </c>
     </row>
     <row r="25" spans="6:13" x14ac:dyDescent="0.3">
       <c r="F25" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="G25" s="18">
-        <v>237932</v>
-      </c>
-      <c r="H25" s="18">
-        <v>270700</v>
-      </c>
-      <c r="I25" s="18">
-        <v>303468</v>
-      </c>
-      <c r="J25" s="18">
-        <v>336236</v>
-      </c>
-      <c r="K25" s="23">
-        <v>369004</v>
-      </c>
-      <c r="L25" s="27">
-        <v>401772</v>
-      </c>
+      <c r="G25" s="18"/>
+      <c r="H25" s="18"/>
+      <c r="I25" s="18"/>
+      <c r="J25" s="18"/>
+      <c r="K25" s="19"/>
     </row>
     <row r="26" spans="6:13" x14ac:dyDescent="0.3">
       <c r="F26" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="G26" s="20">
-        <v>0.9022</v>
-      </c>
-      <c r="H26" s="20">
-        <v>0.9113</v>
-      </c>
-      <c r="I26" s="20">
-        <v>0.90500000000000003</v>
-      </c>
-      <c r="J26" s="20">
-        <v>0.91679999999999995</v>
-      </c>
-      <c r="K26" s="24">
-        <v>0.91959999999999997</v>
-      </c>
-      <c r="L26" s="28">
-        <v>0.90549999999999997</v>
-      </c>
-      <c r="M26" s="30"/>
+      <c r="G26" s="20"/>
+      <c r="H26" s="20"/>
+      <c r="I26" s="20"/>
+      <c r="J26" s="20"/>
+      <c r="K26" s="21"/>
+      <c r="M26" s="27"/>
     </row>
     <row r="27" spans="6:13" x14ac:dyDescent="0.3">
       <c r="F27" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="G27" s="20">
-        <v>0.90700000000000003</v>
-      </c>
-      <c r="H27" s="20">
-        <v>0.89429999999999998</v>
-      </c>
-      <c r="I27" s="20">
-        <v>0.89990000000000003</v>
-      </c>
-      <c r="J27" s="20">
-        <v>0.91459999999999997</v>
-      </c>
-      <c r="K27" s="24">
-        <v>0.90469999999999995</v>
-      </c>
-      <c r="L27" s="28">
-        <v>0.91839999999999999</v>
-      </c>
-      <c r="M27" s="30"/>
+      <c r="G27" s="20"/>
+      <c r="H27" s="20"/>
+      <c r="I27" s="20"/>
+      <c r="J27" s="20"/>
+      <c r="K27" s="21"/>
+      <c r="M27" s="27"/>
     </row>
     <row r="28" spans="6:13" x14ac:dyDescent="0.3">
       <c r="F28" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="G28" s="20">
-        <v>0.90429999999999999</v>
-      </c>
-      <c r="H28" s="20">
-        <v>0.91600000000000004</v>
-      </c>
-      <c r="I28" s="20">
-        <v>0.92230000000000001</v>
-      </c>
-      <c r="J28" s="20">
-        <v>0.90569999999999995</v>
-      </c>
-      <c r="K28" s="24">
-        <v>0.93289999999999995</v>
-      </c>
-      <c r="L28" s="28">
-        <v>0.9</v>
-      </c>
-      <c r="M28" s="30"/>
+        <v>21</v>
+      </c>
+      <c r="G28" s="20"/>
+      <c r="H28" s="20"/>
+      <c r="I28" s="20"/>
+      <c r="J28" s="20"/>
+      <c r="K28" s="21"/>
+      <c r="M28" s="27"/>
     </row>
     <row r="29" spans="6:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F29" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="G29" s="22">
-        <f t="shared" ref="G29:M29" si="2">AVERAGE(G26:G28)</f>
-        <v>0.90450000000000008</v>
-      </c>
-      <c r="H29" s="22">
-        <f t="shared" si="2"/>
-        <v>0.90720000000000001</v>
-      </c>
-      <c r="I29" s="22">
-        <f t="shared" si="2"/>
-        <v>0.90906666666666658</v>
-      </c>
-      <c r="J29" s="22">
-        <f t="shared" si="2"/>
-        <v>0.91236666666666666</v>
-      </c>
-      <c r="K29" s="25">
-        <f t="shared" si="2"/>
-        <v>0.9190666666666667</v>
-      </c>
-      <c r="L29" s="29">
-        <f t="shared" si="2"/>
-        <v>0.9079666666666667</v>
-      </c>
-      <c r="M29" s="30"/>
+      <c r="G29" s="22" t="e">
+        <f>AVERAGE(G26:G28)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H29" s="22" t="e">
+        <f>AVERAGE(H26:H28)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I29" s="22" t="e">
+        <f>AVERAGE(I26:I28)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J29" s="22" t="e">
+        <f>AVERAGE(J26:J28)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K29" s="26" t="e">
+        <f>AVERAGE(K26:K28)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M29" s="27"/>
     </row>
     <row r="30" spans="6:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="31" spans="6:13" x14ac:dyDescent="0.3">
       <c r="F31" s="5" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="G31" s="6">
         <v>50</v>
@@ -3822,111 +3833,71 @@
       <c r="F32" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="G32" s="18">
-        <v>156868</v>
-      </c>
-      <c r="H32" s="18">
-        <v>220168</v>
-      </c>
-      <c r="I32" s="23">
-        <v>303468</v>
-      </c>
-      <c r="J32" s="18">
-        <v>406768</v>
-      </c>
-      <c r="K32" s="19">
-        <v>530068</v>
-      </c>
+      <c r="G32" s="18"/>
+      <c r="H32" s="18"/>
+      <c r="I32" s="18"/>
+      <c r="J32" s="18"/>
+      <c r="K32" s="19"/>
     </row>
     <row r="33" spans="6:11" x14ac:dyDescent="0.3">
       <c r="F33" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="G33" s="20">
-        <v>0.90639999999999998</v>
-      </c>
-      <c r="H33" s="20">
-        <v>0.91590000000000005</v>
-      </c>
-      <c r="I33" s="24">
-        <v>0.91100000000000003</v>
-      </c>
-      <c r="J33" s="20">
-        <v>0.90569999999999995</v>
-      </c>
-      <c r="K33" s="21">
-        <v>0.91369999999999996</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G33" s="20"/>
+      <c r="H33" s="20"/>
+      <c r="I33" s="20"/>
+      <c r="J33" s="20"/>
+      <c r="K33" s="21"/>
     </row>
     <row r="34" spans="6:11" x14ac:dyDescent="0.3">
       <c r="F34" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="G34" s="20">
-        <v>0.91539999999999999</v>
-      </c>
-      <c r="H34" s="20">
-        <v>0.90890000000000004</v>
-      </c>
-      <c r="I34" s="24">
-        <v>0.90539999999999998</v>
-      </c>
-      <c r="J34" s="20">
-        <v>0.91300000000000003</v>
-      </c>
-      <c r="K34" s="21">
-        <v>0.90410000000000001</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G34" s="20"/>
+      <c r="H34" s="20"/>
+      <c r="I34" s="20"/>
+      <c r="J34" s="20"/>
+      <c r="K34" s="21"/>
     </row>
     <row r="35" spans="6:11" x14ac:dyDescent="0.3">
       <c r="F35" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="G35" s="20">
-        <v>0.90490000000000004</v>
-      </c>
-      <c r="H35" s="20">
-        <v>0.89839999999999998</v>
-      </c>
-      <c r="I35" s="24">
-        <v>0.91820000000000002</v>
-      </c>
-      <c r="J35" s="20">
-        <v>0.90429999999999999</v>
-      </c>
-      <c r="K35" s="21">
-        <v>0.91190000000000004</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G35" s="20"/>
+      <c r="H35" s="20"/>
+      <c r="I35" s="20"/>
+      <c r="J35" s="20"/>
+      <c r="K35" s="21"/>
     </row>
     <row r="36" spans="6:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F36" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G36" s="22">
+        <v>26</v>
+      </c>
+      <c r="G36" s="22" t="e">
         <f>AVERAGE(G33:G35)</f>
-        <v>0.90890000000000004</v>
-      </c>
-      <c r="H36" s="22">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H36" s="22" t="e">
         <f>AVERAGE(H33:H35)</f>
-        <v>0.90773333333333339</v>
-      </c>
-      <c r="I36" s="25">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I36" s="22" t="e">
         <f>AVERAGE(I33:I35)</f>
-        <v>0.91153333333333331</v>
-      </c>
-      <c r="J36" s="22">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J36" s="22" t="e">
         <f>AVERAGE(J33:J35)</f>
-        <v>0.90766666666666662</v>
-      </c>
-      <c r="K36" s="29">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K36" s="26" t="e">
         <f>AVERAGE(K33:K35)</f>
-        <v>0.90990000000000004</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="37" spans="6:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="38" spans="6:11" x14ac:dyDescent="0.3">
       <c r="F38" s="5" t="s">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="G38" s="6">
         <v>50</v>
@@ -3948,105 +3919,65 @@
       <c r="F39" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="G39" s="18">
-        <v>287768</v>
-      </c>
-      <c r="H39" s="18">
-        <v>295618</v>
-      </c>
-      <c r="I39" s="23">
-        <v>303468</v>
-      </c>
-      <c r="J39" s="18">
-        <v>311318</v>
-      </c>
-      <c r="K39" s="19">
-        <v>319168</v>
-      </c>
+      <c r="G39" s="18"/>
+      <c r="H39" s="18"/>
+      <c r="I39" s="18"/>
+      <c r="J39" s="18"/>
+      <c r="K39" s="19"/>
     </row>
     <row r="40" spans="6:11" x14ac:dyDescent="0.3">
       <c r="F40" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="G40" s="20">
-        <v>0.89170000000000005</v>
-      </c>
-      <c r="H40" s="20">
-        <v>0.89929999999999999</v>
-      </c>
-      <c r="I40" s="24">
-        <v>0.90980000000000005</v>
-      </c>
-      <c r="J40" s="20">
-        <v>0.91090000000000004</v>
-      </c>
-      <c r="K40" s="21">
-        <v>0.91310000000000002</v>
-      </c>
+      <c r="G40" s="20"/>
+      <c r="H40" s="20"/>
+      <c r="I40" s="20"/>
+      <c r="J40" s="20"/>
+      <c r="K40" s="21"/>
     </row>
     <row r="41" spans="6:11" x14ac:dyDescent="0.3">
       <c r="F41" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="G41" s="20">
-        <v>0.91090000000000004</v>
-      </c>
-      <c r="H41" s="20">
-        <v>0.90380000000000005</v>
-      </c>
-      <c r="I41" s="24">
-        <v>0.91010000000000002</v>
-      </c>
-      <c r="J41" s="20">
-        <v>0.88770000000000004</v>
-      </c>
-      <c r="K41" s="21">
-        <v>0.90939999999999999</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G41" s="20"/>
+      <c r="H41" s="20"/>
+      <c r="I41" s="20"/>
+      <c r="J41" s="20"/>
+      <c r="K41" s="21"/>
     </row>
     <row r="42" spans="6:11" x14ac:dyDescent="0.3">
       <c r="F42" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="G42" s="20">
-        <v>0.91949999999999998</v>
-      </c>
-      <c r="H42" s="20">
-        <v>0.90600000000000003</v>
-      </c>
-      <c r="I42" s="24">
-        <v>0.91259999999999997</v>
-      </c>
-      <c r="J42" s="20">
-        <v>0.9002</v>
-      </c>
-      <c r="K42" s="21">
-        <v>0.9042</v>
-      </c>
+      <c r="G42" s="20"/>
+      <c r="H42" s="20"/>
+      <c r="I42" s="20"/>
+      <c r="J42" s="20"/>
+      <c r="K42" s="21"/>
     </row>
     <row r="43" spans="6:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F43" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="G43" s="22">
+      <c r="G43" s="22" t="e">
         <f>AVERAGE(G40:G42)</f>
-        <v>0.90736666666666677</v>
-      </c>
-      <c r="H43" s="22">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H43" s="22" t="e">
         <f>AVERAGE(H40:H42)</f>
-        <v>0.90303333333333347</v>
-      </c>
-      <c r="I43" s="25">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I43" s="22" t="e">
         <f>AVERAGE(I40:I42)</f>
-        <v>0.91083333333333327</v>
-      </c>
-      <c r="J43" s="22">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J43" s="22" t="e">
         <f>AVERAGE(J40:J42)</f>
-        <v>0.89959999999999996</v>
-      </c>
-      <c r="K43" s="29">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K43" s="26" t="e">
         <f>AVERAGE(K40:K42)</f>
-        <v>0.90890000000000004</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
   </sheetData>
@@ -4054,13 +3985,18 @@
     <mergeCell ref="B10:C10"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="G4:K9">
-    <cfRule type="expression" dxfId="1" priority="3">
+  <conditionalFormatting sqref="G9:K9">
+    <cfRule type="expression" dxfId="2" priority="5">
+      <formula>"LARGE($F$9:$J$9,1) or LARGE($F$9:$J$9,2)"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G4:K8">
+    <cfRule type="expression" dxfId="1" priority="2">
       <formula>"LARGE($F$9:$J$9,1) or LARGE($F$9:$J$9,2)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G11:K15">
-    <cfRule type="expression" dxfId="0" priority="2">
+    <cfRule type="expression" dxfId="0" priority="1">
       <formula>"LARGE($F$9:$J$9,1) or LARGE($F$9:$J$9,2)"</formula>
     </cfRule>
   </conditionalFormatting>
